--- a/data/First_round_results/Results - First and Second Plate 6 reps.xlsx
+++ b/data/First_round_results/Results - First and Second Plate 6 reps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E32E7-7E46-4308-BB41-74A77FC2C6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD1EC5-A1D4-47E3-AB86-CABD825EF643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="476">
   <si>
     <t>RBS</t>
   </si>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L185" sqref="L185"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2087,17 +2087,20 @@
       <c r="G3">
         <v>54.151484835097101</v>
       </c>
+      <c r="H3">
+        <v>45.499195251371198</v>
+      </c>
       <c r="I3">
         <f>AVERAGE(C3:H3)</f>
-        <v>69.563244149086913</v>
+        <v>65.552569332800957</v>
       </c>
       <c r="J3">
         <f>_xlfn.STDEV.P(C3:H3)</f>
-        <v>17.743662160149835</v>
+        <v>18.514647844015187</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K34" si="0">J3/I3</f>
-        <v>0.25507237877120686</v>
+        <v>0.28243969736745156</v>
       </c>
       <c r="L3" t="s">
         <v>103</v>
@@ -2131,17 +2134,20 @@
       <c r="G4">
         <v>45.432031622390497</v>
       </c>
+      <c r="H4">
+        <v>41.005659372965702</v>
+      </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="1">AVERAGE(C4:H4)</f>
-        <v>53.404183343076639</v>
+        <v>51.337762681391474</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" si="2">_xlfn.STDEV.P(C4:H4)</f>
-        <v>15.256165999900897</v>
+        <v>14.673421752803268</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>0.28567361290580839</v>
+        <v>0.28582121593160076</v>
       </c>
       <c r="L4" t="s">
         <v>108</v>
@@ -2175,17 +2181,20 @@
       <c r="G5">
         <v>24.133637075311899</v>
       </c>
+      <c r="H5">
+        <v>25.596638685438901</v>
+      </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>34.999419227565383</v>
+        <v>33.432289137210965</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>13.004783179702333</v>
+        <v>12.378064128113689</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>0.37157139937510236</v>
+        <v>0.37024279364515894</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -2219,17 +2228,20 @@
       <c r="G6">
         <v>38.049576803906</v>
       </c>
+      <c r="H6">
+        <v>31.608154171551099</v>
+      </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>51.022200809664518</v>
+        <v>47.786526369978951</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>14.385070191384047</v>
+        <v>14.992992221058168</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>0.28193746963300842</v>
+        <v>0.31374936326146641</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
@@ -2263,17 +2275,20 @@
       <c r="G7">
         <v>38.394865293671302</v>
       </c>
+      <c r="H7">
+        <v>43.641794419110802</v>
+      </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>51.458434067937262</v>
+        <v>50.155660793132853</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>11.487255342721955</v>
+        <v>10.883486900734892</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>0.22323367492209481</v>
+        <v>0.21699418826568473</v>
       </c>
       <c r="L7" t="s">
         <v>108</v>
@@ -2307,17 +2322,20 @@
       <c r="G8">
         <v>21.1722417929108</v>
       </c>
+      <c r="H8">
+        <v>21.75047081688</v>
+      </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>28.575681876757976</v>
+        <v>27.438146700111648</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>10.233622543356331</v>
+        <v>9.6820688228522727</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>0.35812347672024741</v>
+        <v>0.35286890651447955</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -2351,17 +2369,20 @@
       <c r="G9">
         <v>31.848505915259601</v>
       </c>
+      <c r="H9">
+        <v>37.075513018684397</v>
+      </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>41.51408278508648</v>
+        <v>40.774321157352801</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>11.600452924666333</v>
+        <v>10.71813073148339</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>0.2794341617691643</v>
+        <v>0.26286472532849509</v>
       </c>
       <c r="L9" t="s">
         <v>108</v>
@@ -2433,24 +2454,29 @@
       <c r="D11" s="7">
         <v>40.1977444663301</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="F11" s="7">
         <v>45.233411378176697</v>
       </c>
       <c r="G11">
         <v>38.655692829940598</v>
       </c>
+      <c r="H11">
+        <v>44.862422141300101</v>
+      </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>45.318767168611849</v>
+        <v>45.227498163149498</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>7.2717368848070576</v>
+        <v>6.5066001861896625</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>0.16045751769354225</v>
+        <v>0.14386380963895801</v>
       </c>
       <c r="L11" t="s">
         <v>108</v>
@@ -2484,17 +2510,20 @@
       <c r="G12">
         <v>21.9453529617894</v>
       </c>
+      <c r="H12">
+        <v>22.760129197902401</v>
+      </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>35.844760248996288</v>
+        <v>33.663988407147308</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>17.654175065529426</v>
+        <v>16.837569405983395</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>0.49251759372623427</v>
+        <v>0.50016561324648501</v>
       </c>
       <c r="L12" t="s">
         <v>108</v>
@@ -2528,17 +2557,20 @@
       <c r="G13">
         <v>31.680387597935201</v>
       </c>
+      <c r="H13">
+        <v>40.487819493749598</v>
+      </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>41.763419898063603</v>
+        <v>41.550819830677938</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>10.412398316315842</v>
+        <v>9.5170562425893781</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>0.24931862241479469</v>
+        <v>0.22904617240699338</v>
       </c>
       <c r="L13" t="s">
         <v>108</v>
@@ -2572,17 +2604,20 @@
       <c r="G14">
         <v>39.304469987386803</v>
       </c>
+      <c r="H14">
+        <v>38.6422922254702</v>
+      </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>51.88349759520942</v>
+        <v>49.676630033586214</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>12.276181240075342</v>
+        <v>12.244938153050748</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>0.23661051796956811</v>
+        <v>0.24649293127919475</v>
       </c>
       <c r="L14" t="s">
         <v>108</v>
@@ -2616,17 +2651,20 @@
       <c r="G15">
         <v>32.308771113994602</v>
       </c>
+      <c r="H15">
+        <v>38.356100775537698</v>
+      </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>49.715603149640295</v>
+        <v>47.822352753956523</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>17.570104515088595</v>
+        <v>16.588524021033276</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>0.35341227707132261</v>
+        <v>0.34687804061795863</v>
       </c>
       <c r="L15" t="s">
         <v>108</v>
@@ -2660,17 +2698,20 @@
       <c r="G16">
         <v>33.421516319064501</v>
       </c>
+      <c r="H16">
+        <v>42.483442097400101</v>
+      </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>49.091712436607601</v>
+        <v>47.990334046739683</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>15.923846982311037</v>
+        <v>14.743560991781717</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.32436935262491789</v>
+        <v>0.30721938666695631</v>
       </c>
       <c r="L16" t="s">
         <v>108</v>
@@ -2704,17 +2745,20 @@
       <c r="G17">
         <v>29.9416192635553</v>
       </c>
+      <c r="H17">
+        <v>33.951065514090601</v>
+      </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>46.77334936646762</v>
+        <v>44.636302057738114</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>16.764013083551077</v>
+        <v>16.032102218776547</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.35840950692253398</v>
+        <v>0.3591718283033089</v>
       </c>
       <c r="L17" t="s">
         <v>108</v>
@@ -2748,17 +2792,20 @@
       <c r="G18">
         <v>20.352209802182902</v>
       </c>
+      <c r="H18">
+        <v>20.521662602739401</v>
+      </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>33.958795233230738</v>
+        <v>31.719273128148853</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>16.00585174143394</v>
+        <v>15.445604701760802</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>0.4713315543588909</v>
+        <v>0.48694699400453167</v>
       </c>
       <c r="L18" t="s">
         <v>108</v>
@@ -2792,17 +2839,20 @@
       <c r="G19">
         <v>26.959225705586601</v>
       </c>
+      <c r="H19">
+        <v>30.028719338301102</v>
+      </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>35.709878221798554</v>
+        <v>34.763018407882313</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>9.9747470680035679</v>
+        <v>9.3485667401435961</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0.27932738963849602</v>
+        <v>0.26892275666211607</v>
       </c>
       <c r="L19" t="s">
         <v>108</v>
@@ -2836,17 +2886,20 @@
       <c r="G20">
         <v>23.3457352398263</v>
       </c>
+      <c r="H20">
+        <v>28.552792975683101</v>
+      </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>31.18746861775432</v>
+        <v>30.748356010742452</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>8.2795313394697612</v>
+        <v>7.6216554681973028</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.26547622190652598</v>
+        <v>0.2478719664080431</v>
       </c>
       <c r="L20" t="s">
         <v>108</v>
@@ -2880,17 +2933,20 @@
       <c r="G21">
         <v>24.537122060902501</v>
       </c>
+      <c r="H21">
+        <v>26.7427076892542</v>
+      </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>33.437060906914965</v>
+        <v>32.321335370638167</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>8.4548814845432823</v>
+        <v>8.1114159137741311</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>0.25285958918700197</v>
+        <v>0.25096165801190334</v>
       </c>
       <c r="L21" t="s">
         <v>108</v>
@@ -2924,17 +2980,20 @@
       <c r="G22">
         <v>21.4979096286506</v>
       </c>
+      <c r="H22">
+        <v>23.844856283900601</v>
+      </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>29.889470956528061</v>
+        <v>28.882035177756819</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>11.118331987509753</v>
+        <v>10.396588674278899</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>0.37198155844512981</v>
+        <v>0.35996731567883822</v>
       </c>
       <c r="L22" t="s">
         <v>108</v>
@@ -2968,17 +3027,20 @@
       <c r="G23">
         <v>22.193803373861101</v>
       </c>
+      <c r="H23">
+        <v>32.809686326236701</v>
+      </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>36.869703642619555</v>
+        <v>36.193034089889075</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>9.6692974776281311</v>
+        <v>8.9555664166865405</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>0.26225590450504466</v>
+        <v>0.24743895177299816</v>
       </c>
       <c r="L23" t="s">
         <v>108</v>
@@ -3012,17 +3074,20 @@
       <c r="G24">
         <v>17.653695224930299</v>
       </c>
+      <c r="H24">
+        <v>21.280735484580401</v>
+      </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>29.304307953647896</v>
+        <v>27.967045875469978</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>12.521782349546291</v>
+        <v>11.815408456890992</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>0.42730175950077465</v>
+        <v>0.42247609953163984</v>
       </c>
       <c r="L24" t="s">
         <v>151</v>
@@ -3056,17 +3121,20 @@
       <c r="G25">
         <v>25.769088486307101</v>
       </c>
+      <c r="H25">
+        <v>30.054032201426299</v>
+      </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>32.729830626919785</v>
+        <v>32.283864222670871</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>6.1870496077071255</v>
+        <v>5.7353363059298941</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>0.18903396348829168</v>
+        <v>0.17765333995867627</v>
       </c>
       <c r="L25" t="s">
         <v>151</v>
@@ -3100,17 +3168,20 @@
       <c r="G26">
         <v>14.8699802070958</v>
       </c>
+      <c r="H26">
+        <v>14.4387778374203</v>
+      </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>22.619596029654183</v>
+        <v>21.256126330948536</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>14.150444444340691</v>
+        <v>13.272445632716652</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>0.62558342889013252</v>
+        <v>0.6244056619757764</v>
       </c>
       <c r="L26" t="s">
         <v>151</v>
@@ -3144,17 +3215,20 @@
       <c r="G27">
         <v>30.712356200963502</v>
       </c>
+      <c r="H27">
+        <v>25.042734806696298</v>
+      </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>34.249608369278363</v>
+        <v>32.715129442181357</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>7.2725350950834384</v>
+        <v>7.4731474948337997</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>0.21233921908452671</v>
+        <v>0.22843093156765179</v>
       </c>
       <c r="L27" t="s">
         <v>151</v>
@@ -3188,17 +3262,20 @@
       <c r="G28">
         <v>29.9620055057425</v>
       </c>
+      <c r="H28">
+        <v>36.015558378477998</v>
+      </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>42.787296210135921</v>
+        <v>41.658673238192932</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>14.944683511226884</v>
+        <v>13.874025615261562</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>0.34927852037742513</v>
+        <v>0.33304050601740642</v>
       </c>
       <c r="L28" t="s">
         <v>151</v>
@@ -3232,17 +3309,20 @@
       <c r="G29">
         <v>14.2301417533457</v>
       </c>
+      <c r="H29">
+        <v>15.740442606156099</v>
+      </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>26.974011380947143</v>
+        <v>25.101749918481971</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>18.726580116927192</v>
+        <v>17.600117915767068</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>0.69424528122482176</v>
+        <v>0.7011510342077153</v>
       </c>
       <c r="L29" t="s">
         <v>151</v>
@@ -3276,17 +3356,20 @@
       <c r="G30">
         <v>12.9018004593177</v>
       </c>
+      <c r="H30">
+        <v>5.9291856464070403</v>
+      </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>18.778686494487339</v>
+        <v>16.637103019807288</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>8.9885917255728103</v>
+        <v>9.5005727846260282</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>0.47865923573576336</v>
+        <v>0.57104730152329586</v>
       </c>
       <c r="L30" t="s">
         <v>151</v>
@@ -3320,17 +3403,20 @@
       <c r="G31">
         <v>10.4689189958616</v>
       </c>
+      <c r="H31">
+        <v>7.1211525359789096</v>
+      </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>18.212048882929501</v>
+        <v>16.363566158437735</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>7.8374946793647933</v>
+        <v>8.2627504069739768</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="0"/>
-        <v>0.43034667487143774</v>
+        <v>0.50494802459140975</v>
       </c>
       <c r="L31" t="s">
         <v>151</v>
@@ -3364,17 +3450,20 @@
       <c r="G32">
         <v>9.2213284432397593</v>
       </c>
+      <c r="H32">
+        <v>6.8778858447234503</v>
+      </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>11.515753564699239</v>
+        <v>10.742775611369941</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>8.1108597001947764</v>
+        <v>7.6032347597498831</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>0.70432730733818993</v>
+        <v>0.70775328786563962</v>
       </c>
       <c r="L32" t="s">
         <v>151</v>
@@ -3408,17 +3497,20 @@
       <c r="G33">
         <v>6.8417408766984602</v>
       </c>
+      <c r="H33">
+        <v>5.1182246931207303</v>
+      </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>8.1511845825736842</v>
+        <v>7.6456912676648585</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>3.9133635088437897</v>
+        <v>3.7469493036397012</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>0.48009752069780393</v>
+        <v>0.49007332005234</v>
       </c>
       <c r="L33" t="s">
         <v>151</v>
@@ -3452,17 +3544,20 @@
       <c r="G34">
         <v>9.0646765683026</v>
       </c>
+      <c r="H34">
+        <v>6.9420031051565596</v>
+      </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>8.1113845379174414</v>
+        <v>7.9164876324572946</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>3.1588768316318512</v>
+        <v>2.9163921289794779</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
-        <v>0.38943744028721361</v>
+        <v>0.36839470537696317</v>
       </c>
       <c r="L34" t="s">
         <v>151</v>
@@ -3496,17 +3591,20 @@
       <c r="G35">
         <v>13.7978945484861</v>
       </c>
+      <c r="H35">
+        <v>16.741726534327299</v>
+      </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>17.761503280753622</v>
+        <v>17.591540489682568</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>2.9811926905724477</v>
+        <v>2.7478527920927873</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:K66" si="3">J35/I35</f>
-        <v>0.1678457416272231</v>
+        <v>0.15620307918481624</v>
       </c>
       <c r="L35" t="s">
         <v>151</v>
@@ -3540,17 +3638,20 @@
       <c r="G36">
         <v>14.263203360011801</v>
       </c>
+      <c r="H36">
+        <v>18.814123778604099</v>
+      </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>21.747960991476639</v>
+        <v>21.258988122664547</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>7.1594075058961941</v>
+        <v>6.626442147065581</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="3"/>
-        <v>0.32919902278204732</v>
+        <v>0.31170073141915089</v>
       </c>
       <c r="L36" t="s">
         <v>151</v>
@@ -3584,17 +3685,20 @@
       <c r="G37">
         <v>16.879975707983</v>
       </c>
+      <c r="H37">
+        <v>22.151068189848001</v>
+      </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>24.767179088473977</v>
+        <v>24.331160605369647</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>6.590294975681017</v>
+        <v>6.094578230699411</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="3"/>
-        <v>0.26608985028690552</v>
+        <v>0.2504844848771578</v>
       </c>
       <c r="L37" t="s">
         <v>151</v>
@@ -3628,17 +3732,20 @@
       <c r="G38">
         <v>16.493774392662601</v>
       </c>
+      <c r="H38">
+        <v>17.697527245064698</v>
+      </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>23.184742101688443</v>
+        <v>22.270206292251149</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>8.108661441289895</v>
+        <v>7.6794446874931577</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="3"/>
-        <v>0.34974128268174165</v>
+        <v>0.3448304244117037</v>
       </c>
       <c r="L38" t="s">
         <v>151</v>
@@ -3672,17 +3779,20 @@
       <c r="G39">
         <v>30.019442833052</v>
       </c>
+      <c r="H39">
+        <v>25.590002576857</v>
+      </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>36.804966738141324</v>
+        <v>34.935806044593939</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>6.8953160836348237</v>
+        <v>7.5557899478395942</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="3"/>
-        <v>0.18734743418445055</v>
+        <v>0.21627638813299394</v>
       </c>
       <c r="L39" t="s">
         <v>151</v>
@@ -3716,17 +3826,20 @@
       <c r="G40">
         <v>18.640819524197401</v>
       </c>
+      <c r="H40">
+        <v>20.170159114624301</v>
+      </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>32.178714978159618</v>
+        <v>30.177289000903738</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>18.021399772958752</v>
+        <v>17.049073421337926</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="3"/>
-        <v>0.5600410017985572</v>
+        <v>0.56496371893536712</v>
       </c>
       <c r="L40" t="s">
         <v>151</v>
@@ -3760,17 +3873,20 @@
       <c r="G41">
         <v>17.989919770028798</v>
       </c>
+      <c r="H41">
+        <v>19.101292432737502</v>
+      </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>27.177328231990344</v>
+        <v>25.831322265448204</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>10.499087551927412</v>
+        <v>10.045779868301224</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="3"/>
-        <v>0.38631786989160216</v>
+        <v>0.38889917306859623</v>
       </c>
       <c r="L41" t="s">
         <v>151</v>
@@ -3804,17 +3920,20 @@
       <c r="G42">
         <v>17.456148279238199</v>
       </c>
+      <c r="H42">
+        <v>18.554244369022101</v>
+      </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>25.500773419409938</v>
+        <v>24.343018577678635</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>10.781185436861103</v>
+        <v>10.176620962828615</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="3"/>
-        <v>0.42277876280626819</v>
+        <v>0.41805090565720071</v>
       </c>
       <c r="L42" t="s">
         <v>108</v>
@@ -3848,17 +3967,20 @@
       <c r="G43">
         <v>23.708214576376001</v>
       </c>
+      <c r="H43">
+        <v>27.008643127836699</v>
+      </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>30.882693035309057</v>
+        <v>30.237018050730331</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>6.0979489403922313</v>
+        <v>5.7508230131213329</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="3"/>
-        <v>0.1974552197705127</v>
+        <v>0.19019147336132342</v>
       </c>
       <c r="L43" t="s">
         <v>108</v>
@@ -3892,17 +4014,20 @@
       <c r="G44">
         <v>23.148221757381901</v>
       </c>
+      <c r="H44">
+        <v>27.183765123696102</v>
+      </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>32.044354155027719</v>
+        <v>31.234255983139118</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>8.0078953225521179</v>
+        <v>7.5312649327948931</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="3"/>
-        <v>0.24990035011505105</v>
+        <v>0.24112195715052159</v>
       </c>
       <c r="L44" t="s">
         <v>108</v>
@@ -3936,17 +4061,20 @@
       <c r="G45">
         <v>5.8717234707231301</v>
       </c>
+      <c r="H45">
+        <v>6.1381172356260896</v>
+      </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>13.024884981334273</v>
+        <v>11.877090357049575</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>15.122643326505409</v>
+        <v>14.04157327895512</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="3"/>
-        <v>1.1610577251298109</v>
+        <v>1.1822401663064581</v>
       </c>
       <c r="L45" t="s">
         <v>108</v>
@@ -3980,17 +4108,20 @@
       <c r="G46">
         <v>6.3098615913942</v>
       </c>
+      <c r="H46">
+        <v>7.5532149349249398</v>
+      </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>7.2545120323416583</v>
+        <v>7.3042958494388719</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>3.5844345637247987</v>
+        <v>3.2740191549395901</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="3"/>
-        <v>0.49409726632816564</v>
+        <v>0.44823200243061151</v>
       </c>
       <c r="L46" t="s">
         <v>108</v>
@@ -4024,17 +4155,20 @@
       <c r="G47">
         <v>27.602967991351601</v>
       </c>
+      <c r="H47">
+        <v>35.977381141414497</v>
+      </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>28.800470329937177</v>
+        <v>29.996622131850064</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>13.235230752076545</v>
+        <v>12.37457096428092</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="3"/>
-        <v>0.459549118485018</v>
+        <v>0.41253214811616223</v>
       </c>
       <c r="L47" t="s">
         <v>108</v>
@@ -4068,17 +4202,20 @@
       <c r="G48">
         <v>22.026093065876498</v>
       </c>
+      <c r="H48">
+        <v>25.9867425411163</v>
+      </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>33.501226445992579</v>
+        <v>32.248812461846533</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>11.254445055557376</v>
+        <v>10.648700164600202</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="3"/>
-        <v>0.33594128482730917</v>
+        <v>0.33020441224614533</v>
       </c>
       <c r="L48" t="s">
         <v>108</v>
@@ -4112,17 +4249,20 @@
       <c r="G49">
         <v>23.0535027186436</v>
       </c>
+      <c r="H49">
+        <v>27.179305670378</v>
+      </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>32.974911448021338</v>
+        <v>32.008977151747452</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>8.8424783775873887</v>
+        <v>8.3560157095756207</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" si="3"/>
-        <v>0.26815775962054877</v>
+        <v>0.26105225637050528</v>
       </c>
       <c r="L49" t="s">
         <v>108</v>
@@ -4156,17 +4296,20 @@
       <c r="G50">
         <v>31.4075696138237</v>
       </c>
+      <c r="H50">
+        <v>32.499655812405102</v>
+      </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>40.143796207076335</v>
+        <v>38.869772807964466</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>7.3939077196467489</v>
+        <v>7.3262476238726171</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" si="3"/>
-        <v>0.18418556335594863</v>
+        <v>0.18848187407906483</v>
       </c>
       <c r="L50" t="s">
         <v>108</v>
@@ -4200,17 +4343,20 @@
       <c r="G51">
         <v>39.787619568243699</v>
       </c>
+      <c r="H51">
+        <v>40.075283882614301</v>
+      </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>54.384883381219012</v>
+        <v>51.999950131451563</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>12.982823542956009</v>
+        <v>12.996190043708017</v>
       </c>
       <c r="K51" s="4">
         <f t="shared" si="3"/>
-        <v>0.23872118014763324</v>
+        <v>0.24992697129237099</v>
       </c>
       <c r="L51" t="s">
         <v>108</v>
@@ -4244,17 +4390,20 @@
       <c r="G52">
         <v>31.8451363658838</v>
       </c>
+      <c r="H52">
+        <v>35.293078228942299</v>
+      </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>46.60119377177584</v>
+        <v>44.716507847970242</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>19.325016268944783</v>
+        <v>18.137633527726418</v>
       </c>
       <c r="K52" s="4">
         <f t="shared" si="3"/>
-        <v>0.41468929666452109</v>
+        <v>0.40561381916029288</v>
       </c>
       <c r="L52" t="s">
         <v>108</v>
@@ -4288,17 +4437,20 @@
       <c r="G53">
         <v>18.843433209128801</v>
       </c>
+      <c r="H53">
+        <v>21.8639868378099</v>
+      </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>33.08436222071564</v>
+        <v>31.214299656898017</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>17.695736694760047</v>
+        <v>16.686369215765858</v>
       </c>
       <c r="K53" s="4">
         <f t="shared" si="3"/>
-        <v>0.53486709451149506</v>
+        <v>0.53457451870390926</v>
       </c>
       <c r="L53" t="s">
         <v>108</v>
@@ -4332,17 +4484,20 @@
       <c r="G54">
         <v>23.646202186609099</v>
       </c>
+      <c r="H54">
+        <v>25.327369986695</v>
+      </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>34.303592313497354</v>
+        <v>32.807555259030295</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>9.015738925799953</v>
+        <v>8.8840826570246509</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" si="3"/>
-        <v>0.2628220054449677</v>
+        <v>0.27079380303960027</v>
       </c>
       <c r="L54" t="s">
         <v>108</v>
@@ -4376,17 +4531,20 @@
       <c r="G55">
         <v>29.408440648920902</v>
       </c>
+      <c r="H55">
+        <v>33.092258604048403</v>
+      </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>35.982202741897758</v>
+        <v>35.500545385589533</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>10.001991437218861</v>
+        <v>9.193829251347255</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="3"/>
-        <v>0.27797051528400507</v>
+        <v>0.25897712701279335</v>
       </c>
       <c r="L55" t="s">
         <v>108</v>
@@ -4420,17 +4578,20 @@
       <c r="G56">
         <v>23.581866196506699</v>
       </c>
+      <c r="H56">
+        <v>27.5971112795112</v>
+      </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>32.293991002813982</v>
+        <v>31.511177715596855</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>7.1176381739397883</v>
+        <v>6.729137700514773</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="3"/>
-        <v>0.22040131779684904</v>
+        <v>0.21354764208587804</v>
       </c>
       <c r="L56" t="s">
         <v>108</v>
@@ -4464,17 +4625,20 @@
       <c r="G57">
         <v>22.705826279454701</v>
       </c>
+      <c r="H57">
+        <v>30.734989307199299</v>
+      </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>33.276503565641221</v>
+        <v>32.852917855900898</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>8.3157324423777705</v>
+        <v>7.6500520245611972</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" si="3"/>
-        <v>0.24989802266858233</v>
+        <v>0.23285761277326325</v>
       </c>
       <c r="L57" t="s">
         <v>108</v>
@@ -4508,17 +4672,20 @@
       <c r="G58">
         <v>25.5368184106771</v>
       </c>
+      <c r="H58">
+        <v>33.905949134945402</v>
+      </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>33.309943177359095</v>
+        <v>33.409277503623478</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>6.7854063016418227</v>
+        <v>6.1981813548146949</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="3"/>
-        <v>0.20370512989208253</v>
+        <v>0.18552275948327399</v>
       </c>
       <c r="L58" t="s">
         <v>108</v>
@@ -4552,17 +4719,20 @@
       <c r="G59">
         <v>24.113670224242401</v>
       </c>
+      <c r="H59">
+        <v>32.396270553265502</v>
+      </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>37.289004139183461</v>
+        <v>36.473548541530469</v>
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
-        <v>9.6515564850294915</v>
+        <v>8.9973306029333155</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="3"/>
-        <v>0.25883116773525178</v>
+        <v>0.24668097738525602</v>
       </c>
       <c r="L59" t="s">
         <v>108</v>
@@ -4596,17 +4766,20 @@
       <c r="G60">
         <v>23.701256363127701</v>
       </c>
+      <c r="H60">
+        <v>29.529964215793701</v>
+      </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>37.043205001211902</v>
+        <v>35.790998203642204</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
-        <v>10.802769147994534</v>
+        <v>10.251339442894796</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="3"/>
-        <v>0.29162620101692366</v>
+        <v>0.28642228374204964</v>
       </c>
       <c r="L60" t="s">
         <v>108</v>
@@ -4640,17 +4813,20 @@
       <c r="G61">
         <v>29.8368526732785</v>
       </c>
+      <c r="H61">
+        <v>35.969497234961104</v>
+      </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>38.859311646871674</v>
+        <v>38.377675911553247</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>9.9349694563552866</v>
+        <v>9.133065202326053</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="3"/>
-        <v>0.25566509120485387</v>
+        <v>0.23797859003693936</v>
       </c>
       <c r="L61" t="s">
         <v>108</v>
@@ -4684,17 +4860,20 @@
       <c r="G62">
         <v>16.277300312684499</v>
       </c>
+      <c r="H62">
+        <v>14.83476766639</v>
+      </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>24.692642440517936</v>
+        <v>23.049663311496616</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>15.86255897192266</v>
+        <v>14.9392397075655</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" si="3"/>
-        <v>0.64240022144790498</v>
+        <v>0.64813266491897814</v>
       </c>
       <c r="L62" t="s">
         <v>108</v>
@@ -4728,17 +4907,20 @@
       <c r="G63">
         <v>48.048027824141499</v>
       </c>
+      <c r="H63">
+        <v>45.612297481165598</v>
+      </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>50.637140889946387</v>
+        <v>49.799666988482919</v>
       </c>
       <c r="J63">
         <f t="shared" si="2"/>
-        <v>11.930822360420757</v>
+        <v>11.051119755093872</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" si="3"/>
-        <v>0.23561406016881831</v>
+        <v>0.2219115191603519</v>
       </c>
       <c r="L63" t="s">
         <v>108</v>
@@ -4772,17 +4954,20 @@
       <c r="G64">
         <v>28.867128747304999</v>
       </c>
+      <c r="H64">
+        <v>33.764344114644302</v>
+      </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>46.196211426343922</v>
+        <v>44.124233541060654</v>
       </c>
       <c r="J64">
         <f t="shared" si="2"/>
-        <v>22.777494364805435</v>
+        <v>21.302832434548868</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="3"/>
-        <v>0.49305979130176691</v>
+        <v>0.48279212407678668</v>
       </c>
       <c r="L64" t="s">
         <v>232</v>
@@ -4816,17 +5001,20 @@
       <c r="G65">
         <v>5.8523965066437</v>
       </c>
+      <c r="H65">
+        <v>13.099792191786401</v>
+      </c>
       <c r="I65">
         <f t="shared" si="1"/>
-        <v>21.454915423049947</v>
+        <v>20.062394884506023</v>
       </c>
       <c r="J65">
         <f t="shared" si="2"/>
-        <v>22.840339621605896</v>
+        <v>21.081504427892476</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="3"/>
-        <v>1.0645737431836961</v>
+        <v>1.0507970035109566</v>
       </c>
       <c r="L65" t="s">
         <v>232</v>
@@ -4860,17 +5048,20 @@
       <c r="G66">
         <v>4.2202208050945904</v>
       </c>
+      <c r="H66">
+        <v>7.4094012374646603</v>
+      </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>12.996295174291365</v>
+        <v>12.065146184820248</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
-        <v>10.297548342483369</v>
+        <v>9.6281588976181567</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="3"/>
-        <v>0.79234491094458015</v>
+        <v>0.79801427600867492</v>
       </c>
       <c r="L66" t="s">
         <v>232</v>
@@ -4904,17 +5095,20 @@
       <c r="G67">
         <v>9.5769138980661008</v>
       </c>
+      <c r="H67">
+        <v>9.3419782955905202</v>
+      </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>10.696296909795764</v>
+        <v>10.470577140761558</v>
       </c>
       <c r="J67">
         <f t="shared" si="2"/>
-        <v>3.9040376215215296</v>
+        <v>3.5994451233318148</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" ref="K67:K98" si="4">J67/I67</f>
-        <v>0.36498964589756078</v>
+        <v>0.34376759513277566</v>
       </c>
       <c r="L67" t="s">
         <v>232</v>
@@ -4948,17 +5142,20 @@
       <c r="G68">
         <v>10.674066278582901</v>
       </c>
+      <c r="H68">
+        <v>4.92623401792636</v>
+      </c>
       <c r="I68">
         <f t="shared" ref="I68:I131" si="5">AVERAGE(C68:H68)</f>
-        <v>7.7493202196400546</v>
+        <v>7.2788058526877721</v>
       </c>
       <c r="J68">
         <f t="shared" ref="J68:J131" si="6">_xlfn.STDEV.P(C68:H68)</f>
-        <v>3.0670428397212457</v>
+        <v>2.9909661758001089</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" si="4"/>
-        <v>0.39578217866749937</v>
+        <v>0.41091440496323511</v>
       </c>
       <c r="L68" t="s">
         <v>232</v>
@@ -4992,17 +5189,20 @@
       <c r="G69">
         <v>10.717208322091</v>
       </c>
+      <c r="H69">
+        <v>11.4596544211634</v>
+      </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>10.28191452575633</v>
+        <v>10.478204508324174</v>
       </c>
       <c r="J69">
         <f t="shared" si="6"/>
-        <v>6.2636463275334009</v>
+        <v>5.7347220115684747</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="4"/>
-        <v>0.60919066306599667</v>
+        <v>0.54730006529388253</v>
       </c>
       <c r="L69" t="s">
         <v>232</v>
@@ -5036,17 +5236,20 @@
       <c r="G70">
         <v>10.768347908870499</v>
       </c>
+      <c r="H70">
+        <v>5.92103683932217</v>
+      </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>9.3369843443069698</v>
+        <v>8.7676597601428359</v>
       </c>
       <c r="J70">
         <f t="shared" si="6"/>
-        <v>2.8783283699557152</v>
+        <v>2.9196970587850815</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="4"/>
-        <v>0.30827173569276844</v>
+        <v>0.33300756857124164</v>
       </c>
       <c r="L70" t="s">
         <v>232</v>
@@ -5080,17 +5283,20 @@
       <c r="G71">
         <v>10.578396745693301</v>
       </c>
+      <c r="H71">
+        <v>7.8264711772177504</v>
+      </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>10.399947999632081</v>
+        <v>9.9710351958963592</v>
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
-        <v>3.6260967546442036</v>
+        <v>3.4462993235851149</v>
       </c>
       <c r="K71" s="4">
         <f t="shared" si="4"/>
-        <v>0.34866489282181834</v>
+        <v>0.34563104591220983</v>
       </c>
       <c r="L71" t="s">
         <v>232</v>
@@ -5124,17 +5330,20 @@
       <c r="G72">
         <v>8.6562646569683093</v>
       </c>
+      <c r="H72">
+        <v>11.524531860439501</v>
+      </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>11.337989109587376</v>
+        <v>11.36907956806273</v>
       </c>
       <c r="J72">
         <f t="shared" si="6"/>
-        <v>3.0467535984822129</v>
+        <v>2.7821615082392266</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" si="4"/>
-        <v>0.26872080834033307</v>
+        <v>0.2447129947137226</v>
       </c>
       <c r="L72" t="s">
         <v>232</v>
@@ -5168,17 +5377,20 @@
       <c r="G73">
         <v>11.7414573357705</v>
       </c>
+      <c r="H73">
+        <v>7.7834930453792497</v>
+      </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>12.331872704028935</v>
+        <v>11.573809427587321</v>
       </c>
       <c r="J73">
         <f t="shared" si="6"/>
-        <v>3.2710298952182857</v>
+        <v>3.4336079374748181</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="4"/>
-        <v>0.26525005355833836</v>
+        <v>0.29667050930443639</v>
       </c>
       <c r="L73" t="s">
         <v>232</v>
@@ -5212,17 +5424,20 @@
       <c r="G74">
         <v>15.6735921434102</v>
       </c>
+      <c r="H74">
+        <v>15.704040250065701</v>
+      </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>21.74449524675418</v>
+        <v>20.7377527473061</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
-        <v>6.1824480802322741</v>
+        <v>6.076172522370852</v>
       </c>
       <c r="K74" s="4">
         <f t="shared" si="4"/>
-        <v>0.28432244621337593</v>
+        <v>0.2930005288620372</v>
       </c>
       <c r="L74" t="s">
         <v>232</v>
@@ -5256,17 +5471,20 @@
       <c r="G75">
         <v>18.764788083403499</v>
       </c>
+      <c r="H75">
+        <v>15.0205255453067</v>
+      </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>25.952206753337997</v>
+        <v>24.13025988533278</v>
       </c>
       <c r="J75">
         <f t="shared" si="6"/>
-        <v>10.624295312904181</v>
+        <v>10.519529189195449</v>
       </c>
       <c r="K75" s="4">
         <f t="shared" si="4"/>
-        <v>0.40937926450272571</v>
+        <v>0.43594761263178888</v>
       </c>
       <c r="L75" t="s">
         <v>232</v>
@@ -5300,17 +5518,20 @@
       <c r="G76">
         <v>11.6115925804387</v>
       </c>
+      <c r="H76">
+        <v>9.2611408014440393</v>
+      </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>21.025779139825396</v>
+        <v>19.065006083428504</v>
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
-        <v>13.890955353307685</v>
+        <v>13.417228554478612</v>
       </c>
       <c r="K76" s="4">
         <f t="shared" si="4"/>
-        <v>0.66066304896147787</v>
+        <v>0.70376209143415924</v>
       </c>
       <c r="L76" t="s">
         <v>232</v>
@@ -5344,17 +5565,20 @@
       <c r="G77">
         <v>11.0212630611852</v>
       </c>
+      <c r="H77">
+        <v>7.7183373347344499</v>
+      </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>18.84167170907838</v>
+        <v>16.987782646687723</v>
       </c>
       <c r="J77">
         <f t="shared" si="6"/>
-        <v>9.6326044805555746</v>
+        <v>9.72147524010329</v>
       </c>
       <c r="K77" s="4">
         <f t="shared" si="4"/>
-        <v>0.51123937563960153</v>
+        <v>0.57226275154861261</v>
       </c>
       <c r="L77" t="s">
         <v>232</v>
@@ -5388,17 +5612,20 @@
       <c r="G78">
         <v>8.6526315646393606</v>
       </c>
+      <c r="H78">
+        <v>9.8666547624770704</v>
+      </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>16.689616286868535</v>
+        <v>15.55245603280329</v>
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
-        <v>8.9889618413835759</v>
+        <v>8.5907040673045909</v>
       </c>
       <c r="K78" s="4">
         <f t="shared" si="4"/>
-        <v>0.53859607595988479</v>
+        <v>0.55236960960925086</v>
       </c>
       <c r="L78" t="s">
         <v>232</v>
@@ -5432,17 +5659,20 @@
       <c r="G79">
         <v>21.477357509413</v>
       </c>
+      <c r="H79">
+        <v>24.722685378163298</v>
+      </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>24.7700794974538</v>
+        <v>24.762180477572048</v>
       </c>
       <c r="J79">
         <f t="shared" si="6"/>
-        <v>8.4998824776648139</v>
+        <v>7.7593157183910106</v>
       </c>
       <c r="K79" s="4">
         <f t="shared" si="4"/>
-        <v>0.34315119895107909</v>
+        <v>0.31335349184692712</v>
       </c>
       <c r="L79" t="s">
         <v>232</v>
@@ -5476,17 +5706,20 @@
       <c r="G80">
         <v>8.32621758676847</v>
       </c>
+      <c r="H80">
+        <v>8.52819424268076</v>
+      </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>15.065180431793355</v>
+        <v>13.97568273360792</v>
       </c>
       <c r="J80">
         <f t="shared" si="6"/>
-        <v>13.614621624938206</v>
+        <v>12.664910625962559</v>
       </c>
       <c r="K80" s="4">
         <f t="shared" si="4"/>
-        <v>0.90371447501591751</v>
+        <v>0.90621051345897463</v>
       </c>
       <c r="L80" t="s">
         <v>232</v>
@@ -5520,17 +5753,20 @@
       <c r="G81">
         <v>12.1284998407834</v>
       </c>
+      <c r="H81">
+        <v>4.1751768286934903</v>
+      </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>12.83340862736922</v>
+        <v>11.3903699942566</v>
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
-        <v>2.6076151597575237</v>
+        <v>4.0097609863650758</v>
       </c>
       <c r="K81" s="4">
         <f t="shared" si="4"/>
-        <v>0.20318959954227458</v>
+        <v>0.35203079341469412</v>
       </c>
       <c r="L81" t="s">
         <v>232</v>
@@ -5564,17 +5800,20 @@
       <c r="G82">
         <v>11.707384970514401</v>
       </c>
+      <c r="H82">
+        <v>9.8206642812088294</v>
+      </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>17.11992341250258</v>
+        <v>15.90338022395362</v>
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
-        <v>6.8503978442488647</v>
+        <v>6.8195683271327505</v>
       </c>
       <c r="K82" s="4">
         <f t="shared" si="4"/>
-        <v>0.40014185105793521</v>
+        <v>0.42881250596405529</v>
       </c>
       <c r="L82" t="s">
         <v>232</v>
@@ -5608,17 +5847,20 @@
       <c r="G83">
         <v>12.017648817912599</v>
       </c>
+      <c r="H83">
+        <v>12.788715375313</v>
+      </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>14.132348515948559</v>
+        <v>13.908409659175966</v>
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
-        <v>10.457123326975134</v>
+        <v>9.5591282702714384</v>
       </c>
       <c r="K83" s="4">
         <f t="shared" si="4"/>
-        <v>0.739942360972355</v>
+        <v>0.68729125072648956</v>
       </c>
       <c r="L83" t="s">
         <v>232</v>
@@ -5652,17 +5894,20 @@
       <c r="G84">
         <v>11.8933724868456</v>
       </c>
+      <c r="H84">
+        <v>12.471647665415199</v>
+      </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>18.464841791491978</v>
+        <v>17.465976103812515</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
-        <v>7.6105188301596227</v>
+        <v>7.2976247754751453</v>
       </c>
       <c r="K84" s="4">
         <f t="shared" si="4"/>
-        <v>0.41216268821032154</v>
+        <v>0.41781946408836562</v>
       </c>
       <c r="L84" t="s">
         <v>232</v>
@@ -5696,17 +5941,20 @@
       <c r="G85">
         <v>11.889291732419499</v>
       </c>
+      <c r="H85">
+        <v>13.199398120561201</v>
+      </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>17.616669650512424</v>
+        <v>16.880457728853887</v>
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
-        <v>9.3727326715277055</v>
+        <v>8.7130250053906764</v>
       </c>
       <c r="K85" s="4">
         <f t="shared" si="4"/>
-        <v>0.53203771527015475</v>
+        <v>0.51616047060723003</v>
       </c>
       <c r="L85" t="s">
         <v>232</v>
@@ -5740,17 +5988,20 @@
       <c r="G86">
         <v>24.75041120325</v>
       </c>
+      <c r="H86">
+        <v>29.006689248462099</v>
+      </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>32.723488247166237</v>
+        <v>32.104021747382212</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
-        <v>8.0759587311645173</v>
+        <v>7.5013077689604817</v>
       </c>
       <c r="K86" s="4">
         <f t="shared" si="4"/>
-        <v>0.24679394415917358</v>
+        <v>0.23365632592658409</v>
       </c>
       <c r="L86" t="s">
         <v>232</v>
@@ -5784,17 +6035,20 @@
       <c r="G87">
         <v>20.217338927014001</v>
       </c>
+      <c r="H87">
+        <v>16.040739001493499</v>
+      </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>31.169762023507463</v>
+        <v>28.648258186505135</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
-        <v>16.084318090879382</v>
+        <v>15.728243651912061</v>
       </c>
       <c r="K87" s="4">
         <f t="shared" si="4"/>
-        <v>0.51602312775917214</v>
+        <v>0.54901221391955013</v>
       </c>
       <c r="L87" t="s">
         <v>232</v>
@@ -5828,17 +6082,20 @@
       <c r="G88">
         <v>27.2903666766863</v>
       </c>
+      <c r="H88">
+        <v>25.4667548294426</v>
+      </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>34.86924759839652</v>
+        <v>33.302165470237533</v>
       </c>
       <c r="J88">
         <f t="shared" si="6"/>
-        <v>12.270504409315642</v>
+        <v>11.736685961740021</v>
       </c>
       <c r="K88" s="4">
         <f t="shared" si="4"/>
-        <v>0.35190046400312658</v>
+        <v>0.35243011365820071</v>
       </c>
       <c r="L88" t="s">
         <v>232</v>
@@ -5872,17 +6129,20 @@
       <c r="G89">
         <v>17.7696158758996</v>
       </c>
+      <c r="H89">
+        <v>15.8680790390697</v>
+      </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>27.080360138273601</v>
+        <v>25.211646621739618</v>
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>17.196208419959436</v>
+        <v>16.244540756408618</v>
       </c>
       <c r="K89" s="4">
         <f t="shared" si="4"/>
-        <v>0.63500663699281623</v>
+        <v>0.64432684624419567</v>
       </c>
       <c r="L89" t="s">
         <v>232</v>
@@ -5916,17 +6176,20 @@
       <c r="G90">
         <v>18.442798818957701</v>
       </c>
+      <c r="H90">
+        <v>15.8708341838823</v>
+      </c>
       <c r="I90">
         <f t="shared" si="5"/>
-        <v>25.992222774385084</v>
+        <v>24.305324675967952</v>
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>9.8507646763844949</v>
+        <v>9.7515518370225092</v>
       </c>
       <c r="K90" s="4">
         <f t="shared" si="4"/>
-        <v>0.37898892918431987</v>
+        <v>0.4012105152688793</v>
       </c>
       <c r="L90" t="s">
         <v>232</v>
@@ -5960,17 +6223,20 @@
       <c r="G91">
         <v>17.417029045003201</v>
       </c>
+      <c r="H91">
+        <v>15.178484388044</v>
+      </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>25.505389252085621</v>
+        <v>23.784238441412018</v>
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>13.557542430411864</v>
+        <v>12.960874373504293</v>
       </c>
       <c r="K91" s="4">
         <f t="shared" si="4"/>
-        <v>0.53155598985038977</v>
+        <v>0.54493543719850268</v>
       </c>
       <c r="L91" t="s">
         <v>232</v>
@@ -6004,17 +6270,20 @@
       <c r="G92">
         <v>18.538759036861698</v>
       </c>
+      <c r="H92">
+        <v>15.4858028658515</v>
+      </c>
       <c r="I92">
         <f t="shared" si="5"/>
-        <v>22.32082810741262</v>
+        <v>21.181657233819099</v>
       </c>
       <c r="J92">
         <f t="shared" si="6"/>
-        <v>8.6634407919334464</v>
+        <v>8.3087036709906084</v>
       </c>
       <c r="K92" s="4">
         <f t="shared" si="4"/>
-        <v>0.38813258855106575</v>
+        <v>0.39225937702951541</v>
       </c>
       <c r="L92" t="s">
         <v>232</v>
